--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchicagoedu-my.sharepoint.com/personal/wtchen_uchicago_edu/Documents/uchicago-fourthyear/HCI/project1/hci-project1/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8908A6-A2CF-AB40-B0C0-96ABE274EFF1}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F760FA-5FDA-49E6-84A8-A2F59114BB02}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{021E2D31-30A6-8444-98B7-74580109CCA6}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{021E2D31-30A6-8444-98B7-74580109CCA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -62,10 +60,25 @@
     <t>Additional notes</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
     <t>Understood how to perform the gestures intuitively after the experiment finished.</t>
+  </si>
+  <si>
+    <t>James Kenniff</t>
+  </si>
+  <si>
+    <t>Kiki Apple</t>
+  </si>
+  <si>
+    <t>Max Gallo</t>
+  </si>
+  <si>
+    <t>Used the hard punch to clear his picture without instruction</t>
+  </si>
+  <si>
+    <t>Andy Yang</t>
+  </si>
+  <si>
+    <t>Andy Liu</t>
   </si>
 </sst>
 </file>
@@ -127,10 +140,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,24 +439,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D3074D-7E25-EB4C-AB39-D1484D7770F0}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
-    <col min="5" max="5" width="51.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
+    <col min="5" max="5" width="51.875" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="54.83203125" customWidth="1"/>
+    <col min="8" max="8" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,9 +483,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -496,7 +506,102 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchicagoedu-my.sharepoint.com/personal/wtchen_uchicago_edu/Documents/uchicago-fourthyear/HCI/project1/hci-project1/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F760FA-5FDA-49E6-84A8-A2F59114BB02}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20672A53-F0D1-0B40-A868-CB1EDFA5C856}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{021E2D31-30A6-8444-98B7-74580109CCA6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{021E2D31-30A6-8444-98B7-74580109CCA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,29 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Number hard punch successes out of 10</t>
-  </si>
-  <si>
-    <t>Number precision spin successes out of 10</t>
-  </si>
-  <si>
-    <t>Number walking activations</t>
-  </si>
-  <si>
-    <t>Number drawing activations</t>
-  </si>
-  <si>
-    <t>Number false hard punch activations when precision spinning</t>
-  </si>
-  <si>
-    <t>Number false spin activations when hard punching</t>
-  </si>
-  <si>
     <t>Additional notes</t>
   </si>
   <si>
@@ -79,6 +61,27 @@
   </si>
   <si>
     <t>Andy Liu</t>
+  </si>
+  <si>
+    <t>hard_punch_success</t>
+  </si>
+  <si>
+    <t>spin_success</t>
+  </si>
+  <si>
+    <t>spin_activation_when_expect_punch</t>
+  </si>
+  <si>
+    <t>punch_activation_when_expect_spin</t>
+  </si>
+  <si>
+    <t>activations_during_draw</t>
+  </si>
+  <si>
+    <t>activations_during_walk</t>
+  </si>
+  <si>
+    <t>Walked really aggressively</t>
   </si>
 </sst>
 </file>
@@ -441,51 +444,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D3074D-7E25-EB4C-AB39-D1484D7770F0}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="36.625" customWidth="1"/>
-    <col min="5" max="5" width="51.875" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="54.875" customWidth="1"/>
+    <col min="8" max="8" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -506,12 +509,12 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -532,9 +535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -555,12 +558,12 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -581,9 +584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -602,6 +605,9 @@
       </c>
       <c r="G6">
         <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchicagoedu-my.sharepoint.com/personal/wtchen_uchicago_edu/Documents/uchicago-fourthyear/HCI/project1/hci-project1/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20672A53-F0D1-0B40-A868-CB1EDFA5C856}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BCD6036-9D78-5B46-9DBF-94862CC2CABB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{021E2D31-30A6-8444-98B7-74580109CCA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Walked really aggressively</t>
+  </si>
+  <si>
+    <t>Justin Chang</t>
+  </si>
+  <si>
+    <t>Steph Yue</t>
+  </si>
+  <si>
+    <t>Jhung Kim</t>
   </si>
 </sst>
 </file>
@@ -143,6 +152,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D3074D-7E25-EB4C-AB39-D1484D7770F0}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,6 +623,75 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchicagoedu-my.sharepoint.com/personal/wtchen_uchicago_edu/Documents/uchicago-fourthyear/HCI/project1/hci-project1/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BCD6036-9D78-5B46-9DBF-94862CC2CABB}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB8BEE3-84F1-434C-9CCD-34D1E7C430CC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{021E2D31-30A6-8444-98B7-74580109CCA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Jhung Kim</t>
+  </si>
+  <si>
+    <t>Jake Wei</t>
+  </si>
+  <si>
+    <t>William Zeng</t>
+  </si>
+  <si>
+    <t>Alicia Liu</t>
+  </si>
+  <si>
+    <t>Emilie</t>
   </si>
 </sst>
 </file>
@@ -455,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D3074D-7E25-EB4C-AB39-D1484D7770F0}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,6 +704,98 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchicagoedu-my.sharepoint.com/personal/wtchen_uchicago_edu/Documents/uchicago-fourthyear/HCI/project1/hci-project1/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB8BEE3-84F1-434C-9CCD-34D1E7C430CC}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{C47ECC5B-F132-6644-BEBC-EC0B35DF3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14FC1865-707B-CB49-BE4D-562F2E1713D5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{021E2D31-30A6-8444-98B7-74580109CCA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -75,12 +75,6 @@
     <t>punch_activation_when_expect_spin</t>
   </si>
   <si>
-    <t>activations_during_draw</t>
-  </si>
-  <si>
-    <t>activations_during_walk</t>
-  </si>
-  <si>
     <t>Walked really aggressively</t>
   </si>
   <si>
@@ -103,6 +97,21 @@
   </si>
   <si>
     <t>Emilie</t>
+  </si>
+  <si>
+    <t>Lucas Hong</t>
+  </si>
+  <si>
+    <t>punch_activations_during_walk</t>
+  </si>
+  <si>
+    <t>spin_activations_during_walk</t>
+  </si>
+  <si>
+    <t>punch_activations_during_draw</t>
+  </si>
+  <si>
+    <t>spin_activations_during_draw</t>
   </si>
 </sst>
 </file>
@@ -467,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D3074D-7E25-EB4C-AB39-D1484D7770F0}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,10 +491,12 @@
     <col min="5" max="5" width="51.83203125" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="54.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="10" max="10" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,16 +513,22 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -533,11 +550,17 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -559,8 +582,14 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -582,11 +611,17 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -608,8 +643,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -631,13 +672,19 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -657,10 +704,16 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -680,10 +733,16 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -703,16 +762,22 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -726,16 +791,22 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -749,10 +820,16 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -772,16 +849,22 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -790,9 +873,44 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
